--- a/TOPSIS前50家供应商.xlsx
+++ b/TOPSIS前50家供应商.xlsx
@@ -453,46 +453,46 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>S229</t>
+          <t>S140</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9946142358030611</v>
+        <v>0.5773364440440601</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>S361</t>
+          <t>S229</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9446152568375701</v>
+        <v>0.5375724669184084</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>S108</t>
+          <t>S361</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.8247132979591172</v>
+        <v>0.5340382438094486</v>
       </c>
     </row>
     <row r="5">
@@ -507,22 +507,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.7491317182604761</v>
+        <v>0.5235035500074596</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>S282</t>
+          <t>S131</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.7185908357766557</v>
+        <v>0.5187130805651962</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.7159590617415735</v>
+        <v>0.5181183931605766</v>
       </c>
     </row>
     <row r="8">
@@ -552,73 +552,73 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.713559827573001</v>
+        <v>0.5179023317709206</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>S131</t>
+          <t>S282</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.7046306242070329</v>
+        <v>0.5178130421251129</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>S151</t>
+          <t>S108</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.6911125902745325</v>
+        <v>0.5170499939556619</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>S308</t>
+          <t>S268</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6858849104201316</v>
+        <v>0.5142252468986362</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>S330</t>
+          <t>S306</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.6816822405720553</v>
+        <v>0.513337665246241</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>S268</t>
+          <t>S356</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -627,13 +627,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.6806355504121451</v>
+        <v>0.5127344942983493</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>S306</t>
+          <t>S194</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -642,43 +642,43 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.6749287645478381</v>
+        <v>0.5109042195605569</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>S356</t>
+          <t>S352</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.6697587549826143</v>
+        <v>0.509669827550762</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>S194</t>
+          <t>S308</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.6507126631038582</v>
+        <v>0.5094574654161864</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>S139</t>
+          <t>S330</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.6485914246449104</v>
+        <v>0.5090307173063598</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>S352</t>
+          <t>S143</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -702,58 +702,58 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.6318676713691473</v>
+        <v>0.5077380616364883</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>S143</t>
+          <t>S247</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.6252415068574192</v>
+        <v>0.5058271321100456</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>S307</t>
+          <t>S031</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.605906368808243</v>
+        <v>0.5052533565102623</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>S395</t>
+          <t>S284</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.6033065883711842</v>
+        <v>0.5044098304794028</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>S037</t>
+          <t>S365</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -762,58 +762,58 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.5937265460168504</v>
+        <v>0.5042211843213557</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>S374</t>
+          <t>S040</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.5904879364243553</v>
+        <v>0.5034590505609917</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>S284</t>
+          <t>S367</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.5873201110777476</v>
+        <v>0.5029212966484732</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>S247</t>
+          <t>S364</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.5850440297642446</v>
+        <v>0.5028562664480914</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>S140</t>
+          <t>S346</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -822,13 +822,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.5848473301433317</v>
+        <v>0.5025715994889332</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>S365</t>
+          <t>S294</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -837,28 +837,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.5830845514303444</v>
+        <v>0.501540456851962</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>S338</t>
+          <t>S080</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.5821359648211879</v>
+        <v>0.5015130156283661</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>S031</t>
+          <t>S055</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -867,103 +867,103 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.5820889047512141</v>
+        <v>0.5014161958678683</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>S040</t>
+          <t>S218</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.5802999316486808</v>
+        <v>0.5011862198659213</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>S364</t>
+          <t>S244</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.5786873362012144</v>
+        <v>0.5011471772721937</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>S055</t>
+          <t>S114</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.5769241728874105</v>
+        <v>0.5003787894620386</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>S086</t>
+          <t>S007</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.576634029914071</v>
+        <v>0.5003333328295001</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>S367</t>
+          <t>S003</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.5763056796316416</v>
+        <v>0.5002886515201826</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>S346</t>
+          <t>S266</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.5748513688350421</v>
+        <v>0.5002072067012263</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>S114</t>
+          <t>S123</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.5729970964183771</v>
+        <v>0.5001483578062954</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>S294</t>
+          <t>S086</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -987,58 +987,58 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.5717457387032722</v>
+        <v>0.500072582560415</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>S080</t>
+          <t>S291</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.571725350132162</v>
+        <v>0.4999420540998841</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>S244</t>
+          <t>S189</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.5707863056231953</v>
+        <v>0.4998081917242162</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>S218</t>
+          <t>S338</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.5707458594570128</v>
+        <v>0.499649252324531</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>S074</t>
+          <t>S314</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1047,58 +1047,58 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.5703457089236897</v>
+        <v>0.4994960376500566</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>S210</t>
+          <t>S150</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.5703116205661175</v>
+        <v>0.4994545342433907</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>S291</t>
+          <t>S098</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.5699805066945199</v>
+        <v>0.4993274824209605</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>S003</t>
+          <t>S005</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.5692469223161388</v>
+        <v>0.4992757645609295</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>S007</t>
+          <t>S273</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1107,28 +1107,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.568440006188497</v>
+        <v>0.4992481450897279</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>S266</t>
+          <t>S076</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.568049378969614</v>
+        <v>0.499233160690483</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>S123</t>
+          <t>S078</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1137,28 +1137,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.5679224422995673</v>
+        <v>0.4992128740067152</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>S208</t>
+          <t>S129</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.5676421348881389</v>
+        <v>0.4991912985599832</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>S189</t>
+          <t>S292</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1167,37 +1167,37 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.5675800918540564</v>
+        <v>0.4991727108885441</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>S273</t>
+          <t>S067</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.5670096740157521</v>
+        <v>0.4990544461093218</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>S078</t>
+          <t>S213</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.566893482411622</v>
+        <v>0.4989920748948731</v>
       </c>
     </row>
   </sheetData>
